--- a/1.업무/2. 출장 관리 지도 프로그램/5. 2025년 시설 선정/map_data.xlsx
+++ b/1.업무/2. 출장 관리 지도 프로그램/5. 2025년 시설 선정/map_data.xlsx
@@ -11997,7 +11997,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>지행로 108번길 58</t>
+          <t>동두천시 지행로 108번길 58</t>
         </is>
       </c>
       <c r="G248" t="n">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>강변로 336번길 18</t>
+          <t>동두천시 강변로 336번길 18</t>
         </is>
       </c>
       <c r="G249" t="n">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>송내로 157</t>
+          <t>동두천시 송내로 157</t>
         </is>
       </c>
       <c r="G250" t="n">
@@ -12136,7 +12136,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>봉동로 194</t>
+          <t>동두천시 봉동로 194</t>
         </is>
       </c>
       <c r="G251" t="n">
@@ -12182,7 +12182,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>평화로 2238번길 25</t>
+          <t>동두천시 평화로 2238번길 25</t>
         </is>
       </c>
       <c r="G252" t="n">
@@ -12228,7 +12228,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>강변로 702번길 13-25</t>
+          <t>동두천시 강변로 702번길 13-25</t>
         </is>
       </c>
       <c r="G253" t="n">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>이담로 41</t>
+          <t>동두천시 이담로 41</t>
         </is>
       </c>
       <c r="G254" t="n">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>삼육사로 1269번길 24-33</t>
+          <t>동두천시 삼육사로 1269번길 24-33</t>
         </is>
       </c>
       <c r="G255" t="n">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>어수로 5</t>
+          <t>동두천시 어수로 5</t>
         </is>
       </c>
       <c r="G256" t="n">
@@ -12412,14 +12412,14 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>동광로 53</t>
+          <t>동두천시 동광로 53</t>
         </is>
       </c>
       <c r="G257" t="n">
-        <v>37.4922156</v>
+        <v>37.9091155</v>
       </c>
       <c r="H257" t="n">
-        <v>126.9884734</v>
+        <v>127.0539608</v>
       </c>
       <c r="I257" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>천보산로 504</t>
+          <t>동두천시 천보산로 504</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -12504,14 +12504,14 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>강변로 422</t>
+          <t>동두천시 강변로 422</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>34.9558797</v>
+        <v>37.9067938</v>
       </c>
       <c r="H259" t="n">
-        <v>127.7271443</v>
+        <v>127.0510329</v>
       </c>
       <c r="I259" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>탑신로 522</t>
+          <t>동두천시 탑신로 522</t>
         </is>
       </c>
       <c r="G260" t="n">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>광암로 7</t>
+          <t>동두천시 광암로 7</t>
         </is>
       </c>
       <c r="G261" t="n">
@@ -12642,7 +12642,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>삼육사로 1012</t>
+          <t>동두천시 삼육사로 1012</t>
         </is>
       </c>
       <c r="G262" t="n">
@@ -12688,7 +12688,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>평화로2169번길 22</t>
+          <t>동두천시 평화로2169번길 22</t>
         </is>
       </c>
       <c r="G263" t="n">
@@ -12734,14 +12734,14 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>중앙로 167</t>
+          <t>동두천시 중앙로 167</t>
         </is>
       </c>
       <c r="G264" t="n">
-        <v>33.259576</v>
+        <v>37.896607</v>
       </c>
       <c r="H264" t="n">
-        <v>126.5593458</v>
+        <v>127.0518844</v>
       </c>
       <c r="I264" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>동두천로 228</t>
+          <t>동두천시 동두천로 228</t>
         </is>
       </c>
       <c r="G265" t="n">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>정장로 35번길 20</t>
+          <t>동두천시 정장로 35번길 20</t>
         </is>
       </c>
       <c r="G266" t="n">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>행선로 123-12 2층,3층</t>
+          <t>동두천시 행선로 123-12 2층,3층</t>
         </is>
       </c>
       <c r="G267" t="n">
@@ -12918,7 +12918,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>안흥로 26번길 100</t>
+          <t>동두천시 안흥로 26번길 100</t>
         </is>
       </c>
       <c r="G268" t="n">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>지행로 59, 8-10층</t>
+          <t>동두천시 지행로 59, 8-10층</t>
         </is>
       </c>
       <c r="G269" t="n">
@@ -13010,7 +13010,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>지행로 142</t>
+          <t>동두천시 지행로 142</t>
         </is>
       </c>
       <c r="G270" t="n">
@@ -13056,7 +13056,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>삼육사로 1133-1, 지하1층~4층</t>
+          <t>동두천시 삼육사로 1133-1, 지하1층~4층</t>
         </is>
       </c>
       <c r="G271" t="n">
@@ -13102,7 +13102,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>중앙로 265번길 24, 5~6층</t>
+          <t>동두천시 중앙로 265번길 24, 5~6층</t>
         </is>
       </c>
       <c r="G272" t="n">
@@ -13148,7 +13148,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>중앙로 265번길 24, B1~4층</t>
+          <t>동두천시 중앙로 265번길 24, B1~4층</t>
         </is>
       </c>
       <c r="G273" t="n">
@@ -13194,7 +13194,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>중앙로265번길 24, 7~8층</t>
+          <t>동두천시 중앙로265번길 24, 7~8층</t>
         </is>
       </c>
       <c r="G274" t="n">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>삼육사로 1333(탑동동)</t>
+          <t>동두천시 삼육사로 1333(탑동동)</t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>송내로 118 (송내동)</t>
+          <t>동두천시 송내로 118 (송내동)</t>
         </is>
       </c>
       <c r="G276" t="n">
@@ -13332,14 +13332,14 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>동두천로 13, 4층 및 311호(송내동)</t>
+          <t>동두천시 동두천로 13, 4층 및 311호(송내동)</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>37.8847327</v>
+        <v>37.8827943</v>
       </c>
       <c r="H277" t="n">
-        <v>127.0685968</v>
+        <v>127.0539545</v>
       </c>
       <c r="I277" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>큰시장로 64</t>
+          <t>동두천시 큰시장로 64</t>
         </is>
       </c>
       <c r="G278" t="n">
@@ -13424,14 +13424,14 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>중앙로 125</t>
+          <t>동두천시 중앙로 125</t>
         </is>
       </c>
       <c r="G279" t="n">
-        <v>33.2576719</v>
+        <v>37.8927968</v>
       </c>
       <c r="H279" t="n">
-        <v>126.5602011</v>
+        <v>127.0516931</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>지행로 50</t>
+          <t>동두천시 지행로 50</t>
         </is>
       </c>
       <c r="G280" t="n">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>지행로 64</t>
+          <t>동두천시 지행로 64</t>
         </is>
       </c>
       <c r="G281" t="n">
@@ -13562,7 +13562,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>지행로 60, 6층 고시텔 관리실</t>
+          <t>동두천시 지행로 60, 6층 고시텔 관리실</t>
         </is>
       </c>
       <c r="G282" t="n">
@@ -13608,14 +13608,14 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>중앙로 220</t>
+          <t>동두천시 중앙로 220</t>
         </is>
       </c>
       <c r="G283" t="n">
-        <v>33.2576719</v>
+        <v>37.9011661</v>
       </c>
       <c r="H283" t="n">
-        <v>126.5602011</v>
+        <v>127.0532284</v>
       </c>
       <c r="I283" t="inlineStr">
         <is>
@@ -13654,14 +13654,14 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>중앙로 134-12</t>
+          <t>동두천시 중앙로 134-12</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>33.2567157999999</v>
+        <v>37.8930998</v>
       </c>
       <c r="H284" t="n">
-        <v>126.5607989</v>
+        <v>127.0532261</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>지행로 56</t>
+          <t>동두천시 지행로 56</t>
         </is>
       </c>
       <c r="G285" t="n">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>동두천로 119</t>
+          <t>동두천시 동두천로 119</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>지행로 52</t>
+          <t>동두천시 지행로 52</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -13838,7 +13838,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>큰시장로 64</t>
+          <t>동두천시 큰시장로 64</t>
         </is>
       </c>
       <c r="G288" t="n">
@@ -13884,7 +13884,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>어수로 47-41</t>
+          <t>동두천시 어수로 47-41</t>
         </is>
       </c>
       <c r="G289" t="n">
@@ -13930,7 +13930,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>평화로2910번길 46</t>
+          <t>동두천시 평화로2910번길 46</t>
         </is>
       </c>
       <c r="G290" t="n">
@@ -13976,7 +13976,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t xml:space="preserve">평화로2910번길 96-63 </t>
+          <t xml:space="preserve">동두천시 평화로2910번길 96-63 </t>
         </is>
       </c>
       <c r="G291" t="n">
@@ -14022,14 +14022,14 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>동광로 33</t>
+          <t>동두천시 동광로 33</t>
         </is>
       </c>
       <c r="G292" t="n">
-        <v>37.4913947999999</v>
+        <v>37.9088031</v>
       </c>
       <c r="H292" t="n">
-        <v>126.9864487</v>
+        <v>127.0520266</v>
       </c>
       <c r="I292" t="inlineStr">
         <is>
@@ -14068,14 +14068,14 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>동광로 66</t>
+          <t>동두천시 동광로 66</t>
         </is>
       </c>
       <c r="G293" t="n">
-        <v>37.4924378</v>
+        <v>37.9082713</v>
       </c>
       <c r="H293" t="n">
-        <v>126.9898563</v>
+        <v>127.0557799</v>
       </c>
       <c r="I293" t="inlineStr">
         <is>
@@ -14114,14 +14114,14 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>평화로 2346, 6층</t>
+          <t>동두천시 평화로 2346, 6층</t>
         </is>
       </c>
       <c r="G294" t="n">
-        <v>33.4223597</v>
+        <v>37.8971867</v>
       </c>
       <c r="H294" t="n">
-        <v>126.4090583</v>
+        <v>127.0583146</v>
       </c>
       <c r="I294" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>동두천로 129, 내행프라자 7층</t>
+          <t>동두천시 동두천로 129, 내행프라자 7층</t>
         </is>
       </c>
       <c r="G296" t="n">
@@ -14252,14 +14252,14 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>중앙로 110-23, 삼성프라자 701,702호</t>
+          <t>동두천시 중앙로 110-23, 삼성프라자 701,702호</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>33.2517653</v>
+        <v>37.8916267</v>
       </c>
       <c r="H297" t="n">
-        <v>126.5625623</v>
+        <v>127.0533616</v>
       </c>
       <c r="I297" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>지행로 61, 501호</t>
+          <t>동두천시 지행로 61, 501호</t>
         </is>
       </c>
       <c r="G298" t="n">
@@ -14344,7 +14344,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>지행로 60, 효원타워 4층</t>
+          <t>동두천시 지행로 60, 효원타워 4층</t>
         </is>
       </c>
       <c r="G299" t="n">
@@ -14390,7 +14390,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>동두천로 129, 내행프라자 6층</t>
+          <t>동두천시 동두천로 129, 내행프라자 6층</t>
         </is>
       </c>
       <c r="G300" t="n">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>평화로2169번길 21</t>
+          <t>동두천시 평화로2169번길 21</t>
         </is>
       </c>
       <c r="G301" t="n">
@@ -14482,14 +14482,14 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>중앙로 207</t>
+          <t>동두천시 중앙로 207</t>
         </is>
       </c>
       <c r="G302" t="n">
-        <v>33.2576719</v>
+        <v>37.8998762</v>
       </c>
       <c r="H302" t="n">
-        <v>126.5602011</v>
+        <v>127.0522412</v>
       </c>
       <c r="I302" t="inlineStr">
         <is>
